--- a/data/resort_tracking.xlsx
+++ b/data/resort_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\backup\repo\one-stop-ski-trip\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF6A263-634B-41AF-AA45-7441EF1170BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D49028-A326-42E1-BC74-F7CF0698EE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2122,7 +2122,7 @@
   <dimension ref="A1:P365"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+      <selection activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6725,53 +6725,53 @@
         <v>-70.17</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="1">
         <v>3115</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="1">
         <v>2415</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <v>700</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="1">
         <v>14</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="1">
         <v>32</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="1">
         <v>132</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="1">
         <v>0.41</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="1">
         <v>54.12</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L94" s="2">
+      <c r="L94" s="1">
         <v>36.96</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94" s="1">
         <v>0.31</v>
       </c>
-      <c r="N94" s="2">
+      <c r="N94" s="1">
         <v>40.92</v>
       </c>
-      <c r="O94" s="2">
+      <c r="O94" s="1">
         <v>39.14</v>
       </c>
-      <c r="P94" s="2">
+      <c r="P94" s="1">
         <v>-76.7</v>
       </c>
     </row>

--- a/data/resort_tracking.xlsx
+++ b/data/resort_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\backup\repo\one-stop-ski-trip\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D49028-A326-42E1-BC74-F7CF0698EE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACDA659-2F41-48D6-8641-78803B55E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2121,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:XFD94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3608,1203 +3608,1203 @@
         <v>-120.3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>13050</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>10780</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>2270</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>7</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>105</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>900</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>0.1</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>90</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>0.3</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>270</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>0.6</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <v>540</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="1">
         <v>39.72</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="1">
         <v>-104.79</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>11675</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>8040</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>3635</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>5</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>118</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>1028</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>0.18</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>185.04</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>0.3</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <v>308.39999999999998</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>0.52</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="1">
         <v>534.55999999999995</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="1">
         <v>39.119999999999997</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="1">
         <v>-106.85</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>11212</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>7945</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>3267</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>8</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>76</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>673</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>0</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>0</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>0.48</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>323.04000000000002</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="1">
         <v>0.52</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>349.96</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="1">
         <v>39.17</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="1">
         <v>-106.82</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>11440</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>8100</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>3340</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>25</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>149</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>1832</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>0.19</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <v>348.08</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>0.64</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>1172.48</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="1">
         <v>0.17</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <v>311.44</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="1">
         <v>39.61</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="1">
         <v>-106.53</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>12998</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>9600</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>3398</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>31</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>155</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>2358</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>330.12</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>0.31</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>730.98</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="1">
         <v>1296.9000000000001</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="1">
         <v>39.49</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="1">
         <v>-106.03</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>9900</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>7870</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>2030</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>9</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>44</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>470</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="1">
         <v>0.35</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="1">
         <v>164.5</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>0.39</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>183.3</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="1">
         <v>0.26</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="1">
         <v>122.2</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="1">
         <v>39.24</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36" s="1">
         <v>-104.91</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>12313</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>9712</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>2601</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>22</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>127</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>2465</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <v>0.21</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <v>517.65</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>0.25</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <v>616.25</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="1">
         <v>0.54</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="1">
         <v>1331.1</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="1">
         <v>39.46</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="1">
         <v>-106.17</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>12162</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>9375</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>2787</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>16</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <v>121</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>1547</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="1">
         <v>0.21</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <v>324.87</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>0.46</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="1">
         <v>711.62</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="1">
         <v>0.33</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="1">
         <v>510.51</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="1">
         <v>38.869999999999997</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="1">
         <v>-106.99</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>10800</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>9200</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>1600</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>12</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <v>53</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>680</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="1">
         <v>0.2</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <v>136</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1">
         <v>0.5</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="1">
         <v>340</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="1">
         <v>0.3</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="1">
         <v>204</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="1">
         <v>39.94</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="1">
         <v>-105.56</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>12408</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>9280</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>3128</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>20</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>135</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>3148</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="1">
         <v>0.19</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>598.12</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="1">
         <v>0.32</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="1">
         <v>1007.36</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="1">
         <v>0.49</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="1">
         <v>1542.52</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="1">
         <v>39.6</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="1">
         <v>-105.95</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>13010</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>10800</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>2210</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>10</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>93</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>1800</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <v>0.13</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>234</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>0.41</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="1">
         <v>738</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="1">
         <v>0.46</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="1">
         <v>828</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="1">
         <v>40.409999999999997</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="1">
         <v>-105.08</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>11952</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>10790</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>1162</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>7</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>64</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>800</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>112</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1">
         <v>224</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="1">
         <v>464</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="1">
         <v>38.54</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="1">
         <v>-106.33</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>9850</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>8200</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>1650</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>4</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <v>43</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>1600</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <v>0.2</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>320</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>0.5</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <v>800</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="1">
         <v>0.3</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="1">
         <v>480</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="1">
         <v>38.28</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="1">
         <v>-107.1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>10822</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>8739</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>2083</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>10</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>85</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>1200</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="1">
         <v>0.23</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <v>276</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1">
         <v>0.51</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="1">
         <v>612</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="1">
         <v>0.26</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="1">
         <v>312</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="1">
         <v>39.46</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44" s="1">
         <v>-106.08</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>13487</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>10400</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>3087</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>1</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>69</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>1819</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <v>0</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <v>0</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1">
         <v>0</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="1">
         <v>0</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="1">
         <v>1</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="1">
         <v>1819</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="1">
         <v>37.82</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45" s="1">
         <v>-107.66</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>11700</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>10500</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>1200</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>5</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <v>26</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>400</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="1">
         <v>0.3</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <v>120</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1">
         <v>0.4</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="1">
         <v>160</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="1">
         <v>0.3</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="1">
         <v>120</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="1">
         <v>39.36</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="1">
         <v>-106.3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>9202</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>8202</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>1000</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>5</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <v>33</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>406</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="1">
         <v>0.5</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <v>203</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="1">
         <v>0.3</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="1">
         <v>121.8</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="1">
         <v>0.2</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="1">
         <v>81.2</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="1">
         <v>39.92</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47" s="1">
         <v>-105.79</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>12510</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>8104</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>4406</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>21</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>91</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>3362</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="1">
         <v>0.06</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="1">
         <v>201.72</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="1">
         <v>0.5</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="1">
         <v>1681</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="1">
         <v>0.44</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="1">
         <v>1479.28</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="1">
         <v>39.18</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P48" s="1">
         <v>-106.94</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>10568</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>6900</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>3668</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>18</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>165</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>2965</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <v>415.1</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="1">
         <v>0.42</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="1">
         <v>1245.3</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="1">
         <v>0.44</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="1">
         <v>1304.5999999999999</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="1">
         <v>40.799999999999997</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P49" s="1">
         <v>-106.95</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>9895</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>7885</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>2010</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>3</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>67</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>470</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>0.2</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>94</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="1">
         <v>258.5</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="1">
         <v>0.25</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="1">
         <v>117.5</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="1">
         <v>39.4</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P50" s="1">
         <v>-107.34</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>13320</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>8750</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>4570</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>18</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>118</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>2000</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>0.23</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="1">
         <v>460</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="1">
         <v>0.36</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="1">
         <v>720</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="1">
         <v>0.41</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="1">
         <v>820</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="1">
         <v>37.94</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51" s="1">
         <v>-107.82</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>11570</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>8120</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>3450</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>31</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>193</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>5289</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>0.18</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="1">
         <v>952.02</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1">
         <v>1533.81</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="1">
         <v>0.53</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="1">
         <v>2803.17</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="1">
         <v>39.64</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P52" s="1">
         <v>-106.36</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>12060</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>9000</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>3060</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>24</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>142</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>3078</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>0.08</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="1">
         <v>246.24</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="1">
         <v>0.37</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="1">
         <v>1138.8599999999999</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="1">
         <v>1692.9</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="1">
         <v>39.880000000000003</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P53" s="1">
         <v>-105.75</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>11904</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>10300</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>1604</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>7</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>77</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>1600</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <v>0.2</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="1">
         <v>320</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="1">
         <v>0.45</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <v>720</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="1">
         <v>0.35</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="1">
         <v>560</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="1">
         <v>37.4</v>
       </c>
-      <c r="P54" s="2">
+      <c r="P54" s="1">
         <v>-106.6</v>
       </c>
     </row>
